--- a/excel_files/4.4.1.1a.xlsx
+++ b/excel_files/4.4.1.1a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +120,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -189,6 +204,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,7 +491,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -505,8 +524,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -540,8 +560,11 @@
       <c r="K3" s="5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -575,8 +598,11 @@
       <c r="K4" s="2">
         <v>911</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="14">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -610,8 +636,11 @@
       <c r="K5" s="2">
         <v>6794</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="14">
+        <v>8279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -645,8 +674,11 @@
       <c r="K6" s="2">
         <v>1675</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="14">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -680,8 +712,11 @@
       <c r="K7" s="2">
         <v>5119</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="14">
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -715,8 +750,11 @@
       <c r="K8" s="7">
         <v>9511</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="15">
+        <v>10324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -750,8 +788,11 @@
       <c r="K9" s="7">
         <v>3982</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="15">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -784,6 +825,9 @@
       </c>
       <c r="K10" s="8">
         <v>5529</v>
+      </c>
+      <c r="L10" s="16">
+        <v>6193</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">

--- a/excel_files/4.4.1.1a.xlsx
+++ b/excel_files/4.4.1.1a.xlsx
@@ -205,9 +205,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,7 +497,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -564,7 +570,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -602,7 +608,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -640,7 +646,7 @@
         <v>8279</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -678,7 +684,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -716,7 +722,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -754,7 +760,7 @@
         <v>10324</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -792,7 +798,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>

--- a/excel_files/4.4.1.1a.xlsx
+++ b/excel_files/4.4.1.1a.xlsx
@@ -497,7 +497,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -531,6 +531,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -569,6 +570,9 @@
       <c r="L3" s="13">
         <v>2020</v>
       </c>
+      <c r="M3" s="13">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -607,6 +611,9 @@
       <c r="L4" s="14">
         <v>1004</v>
       </c>
+      <c r="M4" s="14">
+        <v>952</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -645,6 +652,9 @@
       <c r="L5" s="14">
         <v>8279</v>
       </c>
+      <c r="M5" s="14">
+        <v>10437</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -683,6 +693,9 @@
       <c r="L6" s="14">
         <v>1752</v>
       </c>
+      <c r="M6" s="14">
+        <v>2253</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -721,6 +734,9 @@
       <c r="L7" s="14">
         <v>6527</v>
       </c>
+      <c r="M7" s="14">
+        <v>8184</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -759,6 +775,9 @@
       <c r="L8" s="15">
         <v>10324</v>
       </c>
+      <c r="M8" s="15">
+        <v>14020</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -797,6 +816,9 @@
       <c r="L9" s="15">
         <v>4131</v>
       </c>
+      <c r="M9" s="15">
+        <v>5139</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -834,6 +856,9 @@
       </c>
       <c r="L10" s="16">
         <v>6193</v>
+      </c>
+      <c r="M10" s="16">
+        <v>8881</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">

--- a/excel_files/4.4.1.1a.xlsx
+++ b/excel_files/4.4.1.1a.xlsx
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -518,7 +518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -532,8 +532,9 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -573,8 +574,11 @@
       <c r="M3" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -614,8 +618,11 @@
       <c r="M4" s="14">
         <v>952</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="14">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -655,8 +662,11 @@
       <c r="M5" s="14">
         <v>10437</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="14">
+        <v>12822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -696,8 +706,11 @@
       <c r="M6" s="14">
         <v>2253</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="14">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -737,8 +750,11 @@
       <c r="M7" s="14">
         <v>8184</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="14">
+        <v>9722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -778,8 +794,11 @@
       <c r="M8" s="15">
         <v>14020</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="15">
+        <v>14424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -819,8 +838,11 @@
       <c r="M9" s="15">
         <v>5139</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="15">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -860,20 +882,23 @@
       <c r="M10" s="16">
         <v>8881</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="16">
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M15" s="10"/>
     </row>
   </sheetData>

--- a/excel_files/4.4.1.1a.xlsx
+++ b/excel_files/4.4.1.1a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t xml:space="preserve">Численность студентов, обучающихся по направлению ИКТ на уровне начального профессионального образования </t>
   </si>
@@ -87,13 +87,22 @@
   </si>
   <si>
     <t>4.4.1.1а МКТ багыты боюнча системасынын баштапкы кесиптик, орто кесиптик жана жогорку кесиптик билим берүүчү жакта окуган студенттердин саны (жынынсы боюнча бөлүнгөн)</t>
+  </si>
+  <si>
+    <t>(число)</t>
+  </si>
+  <si>
+    <t>(саны)</t>
+  </si>
+  <si>
+    <t>(number)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +145,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -213,6 +229,12 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,11 +516,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -507,7 +527,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -518,388 +538,424 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>2010</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>2013</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>2014</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>2015</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <v>2016</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>2017</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="5">
         <v>2018</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="5">
         <v>2019</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L4" s="13">
         <v>2020</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M4" s="13">
         <v>2021</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N4" s="13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="O4" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="7">
         <v>1432</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="7">
         <v>1551</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="7">
         <v>1272</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="7">
         <v>1236</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>891</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="2">
         <v>766</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J5" s="7">
         <v>924</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>911</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L5" s="14">
         <v>1004</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M5" s="14">
         <v>952</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N5" s="14">
         <v>1434</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="O5" s="14">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="7">
         <v>2544</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="7">
         <v>2663</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="7">
         <v>5189</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="7">
         <v>4961</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H6" s="7">
         <v>4754</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I6" s="7">
         <v>5106</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J6" s="7">
         <v>5870</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K6" s="2">
         <v>6794</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L6" s="14">
         <v>8279</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M6" s="14">
         <v>10437</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N6" s="14">
         <v>12822</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="O6" s="14">
+        <v>15467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>1244</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>1347</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
         <v>1873</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>1785</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="7">
         <v>3050</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>1380</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J7" s="7">
         <v>1449</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2">
         <v>1675</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L7" s="14">
         <v>1752</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M7" s="14">
         <v>2253</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N7" s="14">
         <v>3099</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="O7" s="14">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>1300</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>1316</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <v>3316</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <v>3176</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="7">
         <v>1704</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I8" s="7">
         <v>3722</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J8" s="7">
         <v>4421</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
         <v>5119</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L8" s="14">
         <v>6527</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M8" s="14">
         <v>8184</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N8" s="14">
         <v>9722</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="O8" s="14">
+        <v>11647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>12291</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>8890</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>9214</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>8551</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>7089</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>8522</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <v>9516</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K9" s="7">
         <v>9511</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L9" s="15">
         <v>10324</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M9" s="15">
         <v>14020</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N9" s="15">
         <v>14424</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="O9" s="15">
+        <v>16267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>5530</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>4469</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>4096</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>3916</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="7">
         <v>3020</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I10" s="7">
         <v>4023</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J10" s="7">
         <v>4361</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K10" s="7">
         <v>3982</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L10" s="15">
         <v>4131</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M10" s="15">
         <v>5139</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N10" s="15">
         <v>5279</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="O10" s="15">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>6761</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>4421</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="8">
         <v>5118</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <v>4635</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <v>4069</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="8">
         <v>4491</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="8">
         <v>5155</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K11" s="8">
         <v>5529</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L11" s="16">
         <v>6193</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M11" s="16">
         <v>8881</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N11" s="16">
         <v>9145</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="16">
+        <v>10754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
